--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560326/JX560326_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560326/JX560326_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89294656314</v>
+        <v>45441.83320691553</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1288_1292insggca']</t>
+          <t>['1330_1351insagtagtacctttgagcggcct', '1413_1445del', '1258_1392instgtgtctaacgacattcaaacgccgaactcaccgatggataaggttagcggatgctaaggcttgagttcccaatgtttgttaggtgatgtatgcgtcccatgcatttcaatacggctcaccaatcagggggcct', '1233_1361del', '1273_1416del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89294658627</v>
+        <v>45441.83320693707</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['177_181insacgc']</t>
+          <t>['212_299del', '208_333del', '221_283instatattagtcatgccacaacgaaaagacggggacggtcttcctgcgtgtccatccatatcac', '239_311insattgccagttaagaacccagacgcgtagatcaggttgagtcggaagagcaccgcaacgcaccctgggtactc', '222_299del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89294660364</v>
+        <v>45441.83320695657</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['1946_1949del']</t>
+          <t>['1923_2019del', '1949_1974insaccaacagtgcaaccatacataatg', '1902_1930insgcctatcgcacagttggagtacgctgac', '1982_2114del', '1933_1999del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89294673348</v>
+        <v>45441.83320697803</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1320_1325insatagc']</t>
+          <t>['1367_1492del', '1295_1348insttcggggtttaatgtcgcgtgttatgaggatattaagttatgacatttcgtcg', '1275_1290del', '1427_1564del', '1458_1489insctggtataaatcattggattttgcaggagga']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['211_214del']</t>
+          <t>['240_372del', '244_261insgtggtaactcagtgcgt', '155_269inscccgtccatagcggataccatgaaagtaacccgccccaaggacagaatttatattattttagacctgtcgggtaagagcgaccaccggccagggtgcagacgtaccggcccgac', '245_307insttcgcagagatagggatgatcttggtgcctaaacaccaaaaaacatgctaactttttgggct', '234_293del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89294675084</v>
+        <v>45441.83320698966</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1229t&gt;c']</t>
+          <t>['1429_1458del', '1418_1557del', '1251_1274del', '1471_1485insccccacttttatcg', '1258_1383insgggtagcatgtttgctaggataggactccgcgtgttcccggtacgtggttaatccggaggaagatggaaacgaaccattttagggaagtcgtgttgctcataagagatgctttatttttccgtgc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['1894_1898del']</t>
+          <t>['1929_2033del', '1966_2040insagtcattcctacgtgtacgggactttggccgtacctcccgtgcctgagaggttactgaagactttctcgccatg', '1903_1984insggatcacttctgcgcctcttttggtatattatgtcgaaatgcgaaccgcgcagggtatcacacaccggtcggatagccgcg', '1928_1974del', '1912_1928insgacccgcccggcctta']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89294676822</v>
+        <v>45441.83320700702</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['198g&gt;t']</t>
+          <t>['206_309insatgcccatgagaatttgaacgaccagatgttcgggggcgcgggaccacccatgcatcatagggatataacccggatcccagggccatgcgctttctccagtcc', '206_275del', '225_271insccctagtaggtataaggggattatcgattgagtgtggcataagacc', '168_245del', '160_200del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['1960c&gt;t']</t>
+          <t>['1919_1972del', '1916_1951insacggacgcgggaacttcgctcgtcggatgacgaag', '1945_2041inscggtagttaaaatcgccggtccggctactttgatcaataacgtacaccatgagttcacatttaggcttcatgcgtgatgcgaacttgcgttgagct', '1954_2084insggtggccatagggtcttcccttacgaaaatgaacaaatcggtctcatagagccaaacccgttgatcacccaagtatttacattcttgaaaggctctactagactcagtggatggcaatgaccacagtatc', '1973_2107instgtagtcataccgccgtgctgtagtaacgacaagctcagtctttcctagataggtttctcgacttctgatgtggatgccaaatactcccagtaggcgttgtccttataagtcatgtccgtgcagtgtaacaaga']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89294679135</v>
+        <v>45441.83320702439</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1403t&gt;g']</t>
+          <t>['1275_1397insgccgagaaggacaggtcctctctcaaaagcgtacgtggaggcattactccacccattagaagtgcgttgacgattctattgtaaccgctagaagggttccgtgtcctgcctccaataacatt', '1334_1434del', '1397_1475del', '1368_1415del', '1245_1369instaccagtttgcttttcagcctttacctctcacgattatggaccccccacgttggttacgatggggaagttgtcgaggatcgattgtcgcaacggatatctctctggggcaatcacggcgcctac']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['227g&gt;t']</t>
+          <t>['188_207insccattgacagcaaggagcg', '173_259insccattgatcacagagtgtcaggcgcaaacgcccgacatgaatgcacttgattgcttacgccgaggaggaacggcaggtcaggctgc', '170_207del', '238_288del', '181_220inscaagaacttagagctcgtgaactgtggggcgttactagt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['1969_1971del']</t>
+          <t>['1911_2005del', '1949_1987del', '1986_2119insagaagagcgacagttactctgcgcgtttccgaaatggaatacaccgtacgacaaagggtcacggctgacataacggattcgtctcacccggtaagcgagtaatgatacactgtattcgtttcagagcacccca', '1933_2041insgatagcgaaagcatatacgaattcacactgccgttgctcaaagtctctggaaagccggtaacacgccccccgactatgccagcgccggttttcctcatgcccagtcag', '1946_2060del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.8929468145</v>
+        <v>45441.83320704175</v>
       </c>
     </row>
   </sheetData>
